--- a/notebookscc/ana_summer2021/logbooks/auxtelholologbook_PNG_2021_09_09_v2.0.xlsx
+++ b/notebookscc/ana_summer2021/logbooks/auxtelholologbook_PNG_2021_09_09_v2.0.xlsx
@@ -118,7 +118,7 @@
     <t>2021-09-10T00:08:27.395</t>
   </si>
   <si>
-    <t>/sps/lsst/groups/auxtel/data/2021/holo/quickLookExp/2021-09-09</t>
+    <t>/Users/dagoret/DATA/AuxTelData2021/holo/quickLookExp/2021-09-09</t>
   </si>
   <si>
     <t>holo4_003_empty_PNG321.0+03.9_20210909_000165_quickLookExp.fits</t>
